--- a/275-recherche-union-filter/ig/StructureDefinition-ror-task.xlsx
+++ b/275-recherche-union-filter/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-16T10:35:44+00:00</t>
+    <t>2024-02-26T14:29:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
